--- a/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019_AM.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 09_15_2019/Offsets and Clip times 09_15_2019_AM.xlsx
@@ -10099,7 +10099,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
